--- a/Assets/06.Table/RelicEnhance.xlsx
+++ b/Assets/06.Table/RelicEnhance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEB25E-CBC4-46AC-95B8-52DDF9A12740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93124239-69B8-45D9-BBCB-DAF2CC885522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2564,6 +2564,706 @@
         <v>67.5</v>
       </c>
     </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>76000000</v>
+      </c>
+      <c r="C152" s="1">
+        <v>81</v>
+      </c>
+      <c r="D152" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>76500000</v>
+      </c>
+      <c r="C153" s="1">
+        <v>81</v>
+      </c>
+      <c r="D153" s="1">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>77000000</v>
+      </c>
+      <c r="C154" s="1">
+        <v>81</v>
+      </c>
+      <c r="D154" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>77500000</v>
+      </c>
+      <c r="C155" s="1">
+        <v>81</v>
+      </c>
+      <c r="D155" s="1">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>78000000</v>
+      </c>
+      <c r="C156" s="1">
+        <v>81</v>
+      </c>
+      <c r="D156" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>78500000</v>
+      </c>
+      <c r="C157" s="1">
+        <v>81</v>
+      </c>
+      <c r="D157" s="1">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>79000000</v>
+      </c>
+      <c r="C158" s="1">
+        <v>81</v>
+      </c>
+      <c r="D158" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>79500000</v>
+      </c>
+      <c r="C159" s="1">
+        <v>81</v>
+      </c>
+      <c r="D159" s="1">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="C160" s="1">
+        <v>81</v>
+      </c>
+      <c r="D160" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>80500000</v>
+      </c>
+      <c r="C161" s="1">
+        <v>81</v>
+      </c>
+      <c r="D161" s="1">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>81000000</v>
+      </c>
+      <c r="C162" s="1">
+        <v>81</v>
+      </c>
+      <c r="D162" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>81500000</v>
+      </c>
+      <c r="C163" s="1">
+        <v>81</v>
+      </c>
+      <c r="D163" s="1">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>82000000</v>
+      </c>
+      <c r="C164" s="1">
+        <v>81</v>
+      </c>
+      <c r="D164" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>82500000</v>
+      </c>
+      <c r="C165" s="1">
+        <v>81</v>
+      </c>
+      <c r="D165" s="1">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>83000000</v>
+      </c>
+      <c r="C166" s="1">
+        <v>81</v>
+      </c>
+      <c r="D166" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>83500000</v>
+      </c>
+      <c r="C167" s="1">
+        <v>81</v>
+      </c>
+      <c r="D167" s="1">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>84000000</v>
+      </c>
+      <c r="C168" s="1">
+        <v>81</v>
+      </c>
+      <c r="D168" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>84500000</v>
+      </c>
+      <c r="C169" s="1">
+        <v>81</v>
+      </c>
+      <c r="D169" s="1">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>85000000</v>
+      </c>
+      <c r="C170" s="1">
+        <v>81</v>
+      </c>
+      <c r="D170" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>85500000</v>
+      </c>
+      <c r="C171" s="1">
+        <v>81</v>
+      </c>
+      <c r="D171" s="1">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>86000000</v>
+      </c>
+      <c r="C172" s="1">
+        <v>81</v>
+      </c>
+      <c r="D172" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>86500000</v>
+      </c>
+      <c r="C173" s="1">
+        <v>81</v>
+      </c>
+      <c r="D173" s="1">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>87000000</v>
+      </c>
+      <c r="C174" s="1">
+        <v>81</v>
+      </c>
+      <c r="D174" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>87500000</v>
+      </c>
+      <c r="C175" s="1">
+        <v>81</v>
+      </c>
+      <c r="D175" s="1">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>88000000</v>
+      </c>
+      <c r="C176" s="1">
+        <v>81</v>
+      </c>
+      <c r="D176" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>88500000</v>
+      </c>
+      <c r="C177" s="1">
+        <v>81</v>
+      </c>
+      <c r="D177" s="1">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>89000000</v>
+      </c>
+      <c r="C178" s="1">
+        <v>81</v>
+      </c>
+      <c r="D178" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>89500000</v>
+      </c>
+      <c r="C179" s="1">
+        <v>81</v>
+      </c>
+      <c r="D179" s="1">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>90000000</v>
+      </c>
+      <c r="C180" s="1">
+        <v>81</v>
+      </c>
+      <c r="D180" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>90500000</v>
+      </c>
+      <c r="C181" s="1">
+        <v>81</v>
+      </c>
+      <c r="D181" s="1">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>91000000</v>
+      </c>
+      <c r="C182" s="1">
+        <v>81</v>
+      </c>
+      <c r="D182" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>91500000</v>
+      </c>
+      <c r="C183" s="1">
+        <v>81</v>
+      </c>
+      <c r="D183" s="1">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>92000000</v>
+      </c>
+      <c r="C184" s="1">
+        <v>81</v>
+      </c>
+      <c r="D184" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>92500000</v>
+      </c>
+      <c r="C185" s="1">
+        <v>81</v>
+      </c>
+      <c r="D185" s="1">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>93000000</v>
+      </c>
+      <c r="C186" s="1">
+        <v>81</v>
+      </c>
+      <c r="D186" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>93500000</v>
+      </c>
+      <c r="C187" s="1">
+        <v>81</v>
+      </c>
+      <c r="D187" s="1">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>94000000</v>
+      </c>
+      <c r="C188" s="1">
+        <v>81</v>
+      </c>
+      <c r="D188" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>94500000</v>
+      </c>
+      <c r="C189" s="1">
+        <v>81</v>
+      </c>
+      <c r="D189" s="1">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>95000000</v>
+      </c>
+      <c r="C190" s="1">
+        <v>81</v>
+      </c>
+      <c r="D190" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>95500000</v>
+      </c>
+      <c r="C191" s="1">
+        <v>81</v>
+      </c>
+      <c r="D191" s="1">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>96000000</v>
+      </c>
+      <c r="C192" s="1">
+        <v>81</v>
+      </c>
+      <c r="D192" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>96500000</v>
+      </c>
+      <c r="C193" s="1">
+        <v>81</v>
+      </c>
+      <c r="D193" s="1">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>97000000</v>
+      </c>
+      <c r="C194" s="1">
+        <v>81</v>
+      </c>
+      <c r="D194" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>97500000</v>
+      </c>
+      <c r="C195" s="1">
+        <v>81</v>
+      </c>
+      <c r="D195" s="1">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>98000000</v>
+      </c>
+      <c r="C196" s="1">
+        <v>81</v>
+      </c>
+      <c r="D196" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>98500000</v>
+      </c>
+      <c r="C197" s="1">
+        <v>81</v>
+      </c>
+      <c r="D197" s="1">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>99000000</v>
+      </c>
+      <c r="C198" s="1">
+        <v>81</v>
+      </c>
+      <c r="D198" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>99500000</v>
+      </c>
+      <c r="C199" s="1">
+        <v>81</v>
+      </c>
+      <c r="D199" s="1">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C200" s="1">
+        <v>81</v>
+      </c>
+      <c r="D200" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>100500000</v>
+      </c>
+      <c r="C201" s="1">
+        <v>81</v>
+      </c>
+      <c r="D201" s="1">
+        <v>92.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/RelicEnhance.xlsx
+++ b/Assets/06.Table/RelicEnhance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93124239-69B8-45D9-BBCB-DAF2CC885522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC931AB9-8C97-4CB2-8A21-030BEDB05D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicEnhance" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3264,6 +3264,706 @@
         <v>92.5</v>
       </c>
     </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>101000000</v>
+      </c>
+      <c r="C202" s="1">
+        <v>81</v>
+      </c>
+      <c r="D202" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>101500000</v>
+      </c>
+      <c r="C203" s="1">
+        <v>81</v>
+      </c>
+      <c r="D203" s="1">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>102000000</v>
+      </c>
+      <c r="C204" s="1">
+        <v>81</v>
+      </c>
+      <c r="D204" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>102500000</v>
+      </c>
+      <c r="C205" s="1">
+        <v>81</v>
+      </c>
+      <c r="D205" s="1">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>103000000</v>
+      </c>
+      <c r="C206" s="1">
+        <v>81</v>
+      </c>
+      <c r="D206" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>103500000</v>
+      </c>
+      <c r="C207" s="1">
+        <v>81</v>
+      </c>
+      <c r="D207" s="1">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>104000000</v>
+      </c>
+      <c r="C208" s="1">
+        <v>81</v>
+      </c>
+      <c r="D208" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>104500000</v>
+      </c>
+      <c r="C209" s="1">
+        <v>81</v>
+      </c>
+      <c r="D209" s="1">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>105000000</v>
+      </c>
+      <c r="C210" s="1">
+        <v>81</v>
+      </c>
+      <c r="D210" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>105500000</v>
+      </c>
+      <c r="C211" s="1">
+        <v>81</v>
+      </c>
+      <c r="D211" s="1">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>106000000</v>
+      </c>
+      <c r="C212" s="1">
+        <v>81</v>
+      </c>
+      <c r="D212" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>106500000</v>
+      </c>
+      <c r="C213" s="1">
+        <v>81</v>
+      </c>
+      <c r="D213" s="1">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>107000000</v>
+      </c>
+      <c r="C214" s="1">
+        <v>81</v>
+      </c>
+      <c r="D214" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>107500000</v>
+      </c>
+      <c r="C215" s="1">
+        <v>81</v>
+      </c>
+      <c r="D215" s="1">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>108000000</v>
+      </c>
+      <c r="C216" s="1">
+        <v>81</v>
+      </c>
+      <c r="D216" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>108500000</v>
+      </c>
+      <c r="C217" s="1">
+        <v>81</v>
+      </c>
+      <c r="D217" s="1">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>109000000</v>
+      </c>
+      <c r="C218" s="1">
+        <v>81</v>
+      </c>
+      <c r="D218" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>109500000</v>
+      </c>
+      <c r="C219" s="1">
+        <v>81</v>
+      </c>
+      <c r="D219" s="1">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>110000000</v>
+      </c>
+      <c r="C220" s="1">
+        <v>81</v>
+      </c>
+      <c r="D220" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>110500000</v>
+      </c>
+      <c r="C221" s="1">
+        <v>81</v>
+      </c>
+      <c r="D221" s="1">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>111000000</v>
+      </c>
+      <c r="C222" s="1">
+        <v>81</v>
+      </c>
+      <c r="D222" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>111500000</v>
+      </c>
+      <c r="C223" s="1">
+        <v>81</v>
+      </c>
+      <c r="D223" s="1">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>112000000</v>
+      </c>
+      <c r="C224" s="1">
+        <v>81</v>
+      </c>
+      <c r="D224" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>112500000</v>
+      </c>
+      <c r="C225" s="1">
+        <v>81</v>
+      </c>
+      <c r="D225" s="1">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>113000000</v>
+      </c>
+      <c r="C226" s="1">
+        <v>81</v>
+      </c>
+      <c r="D226" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>113500000</v>
+      </c>
+      <c r="C227" s="1">
+        <v>81</v>
+      </c>
+      <c r="D227" s="1">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>114000000</v>
+      </c>
+      <c r="C228" s="1">
+        <v>81</v>
+      </c>
+      <c r="D228" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>114500000</v>
+      </c>
+      <c r="C229" s="1">
+        <v>81</v>
+      </c>
+      <c r="D229" s="1">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>115000000</v>
+      </c>
+      <c r="C230" s="1">
+        <v>81</v>
+      </c>
+      <c r="D230" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>115500000</v>
+      </c>
+      <c r="C231" s="1">
+        <v>81</v>
+      </c>
+      <c r="D231" s="1">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>116000000</v>
+      </c>
+      <c r="C232" s="1">
+        <v>81</v>
+      </c>
+      <c r="D232" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>116500000</v>
+      </c>
+      <c r="C233" s="1">
+        <v>81</v>
+      </c>
+      <c r="D233" s="1">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>117000000</v>
+      </c>
+      <c r="C234" s="1">
+        <v>81</v>
+      </c>
+      <c r="D234" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>117500000</v>
+      </c>
+      <c r="C235" s="1">
+        <v>81</v>
+      </c>
+      <c r="D235" s="1">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>118000000</v>
+      </c>
+      <c r="C236" s="1">
+        <v>81</v>
+      </c>
+      <c r="D236" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>118500000</v>
+      </c>
+      <c r="C237" s="1">
+        <v>81</v>
+      </c>
+      <c r="D237" s="1">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>119000000</v>
+      </c>
+      <c r="C238" s="1">
+        <v>81</v>
+      </c>
+      <c r="D238" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>119500000</v>
+      </c>
+      <c r="C239" s="1">
+        <v>81</v>
+      </c>
+      <c r="D239" s="1">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="C240" s="1">
+        <v>81</v>
+      </c>
+      <c r="D240" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>120500000</v>
+      </c>
+      <c r="C241" s="1">
+        <v>81</v>
+      </c>
+      <c r="D241" s="1">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>121000000</v>
+      </c>
+      <c r="C242" s="1">
+        <v>81</v>
+      </c>
+      <c r="D242" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>121500000</v>
+      </c>
+      <c r="C243" s="1">
+        <v>81</v>
+      </c>
+      <c r="D243" s="1">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>122000000</v>
+      </c>
+      <c r="C244" s="1">
+        <v>81</v>
+      </c>
+      <c r="D244" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>122500000</v>
+      </c>
+      <c r="C245" s="1">
+        <v>81</v>
+      </c>
+      <c r="D245" s="1">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>123000000</v>
+      </c>
+      <c r="C246" s="1">
+        <v>81</v>
+      </c>
+      <c r="D246" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>123500000</v>
+      </c>
+      <c r="C247" s="1">
+        <v>81</v>
+      </c>
+      <c r="D247" s="1">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>124000000</v>
+      </c>
+      <c r="C248" s="1">
+        <v>81</v>
+      </c>
+      <c r="D248" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>124500000</v>
+      </c>
+      <c r="C249" s="1">
+        <v>81</v>
+      </c>
+      <c r="D249" s="1">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>125000000</v>
+      </c>
+      <c r="C250" s="1">
+        <v>81</v>
+      </c>
+      <c r="D250" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <v>125500000</v>
+      </c>
+      <c r="C251" s="1">
+        <v>81</v>
+      </c>
+      <c r="D251" s="1">
+        <v>117.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/RelicEnhance.xlsx
+++ b/Assets/06.Table/RelicEnhance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC931AB9-8C97-4CB2-8A21-030BEDB05D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C9214-F25E-4E85-AEB8-6EB6BA3385B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicEnhance" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B251" sqref="B251"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3964,6 +3964,706 @@
         <v>117.5</v>
       </c>
     </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <v>126000000</v>
+      </c>
+      <c r="C252" s="1">
+        <v>81</v>
+      </c>
+      <c r="D252" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <v>126500000</v>
+      </c>
+      <c r="C253" s="1">
+        <v>81</v>
+      </c>
+      <c r="D253" s="1">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <v>127000000</v>
+      </c>
+      <c r="C254" s="1">
+        <v>81</v>
+      </c>
+      <c r="D254" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <v>127500000</v>
+      </c>
+      <c r="C255" s="1">
+        <v>81</v>
+      </c>
+      <c r="D255" s="1">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>128000000</v>
+      </c>
+      <c r="C256" s="1">
+        <v>81</v>
+      </c>
+      <c r="D256" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <v>128500000</v>
+      </c>
+      <c r="C257" s="1">
+        <v>81</v>
+      </c>
+      <c r="D257" s="1">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>129000000</v>
+      </c>
+      <c r="C258" s="1">
+        <v>81</v>
+      </c>
+      <c r="D258" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <v>129500000</v>
+      </c>
+      <c r="C259" s="1">
+        <v>81</v>
+      </c>
+      <c r="D259" s="1">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <v>130000000</v>
+      </c>
+      <c r="C260" s="1">
+        <v>81</v>
+      </c>
+      <c r="D260" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>130500000</v>
+      </c>
+      <c r="C261" s="1">
+        <v>81</v>
+      </c>
+      <c r="D261" s="1">
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>131000000</v>
+      </c>
+      <c r="C262" s="1">
+        <v>81</v>
+      </c>
+      <c r="D262" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <v>131500000</v>
+      </c>
+      <c r="C263" s="1">
+        <v>81</v>
+      </c>
+      <c r="D263" s="1">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <v>132000000</v>
+      </c>
+      <c r="C264" s="1">
+        <v>81</v>
+      </c>
+      <c r="D264" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>132500000</v>
+      </c>
+      <c r="C265" s="1">
+        <v>81</v>
+      </c>
+      <c r="D265" s="1">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>133000000</v>
+      </c>
+      <c r="C266" s="1">
+        <v>81</v>
+      </c>
+      <c r="D266" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>133500000</v>
+      </c>
+      <c r="C267" s="1">
+        <v>81</v>
+      </c>
+      <c r="D267" s="1">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>134000000</v>
+      </c>
+      <c r="C268" s="1">
+        <v>81</v>
+      </c>
+      <c r="D268" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>134500000</v>
+      </c>
+      <c r="C269" s="1">
+        <v>81</v>
+      </c>
+      <c r="D269" s="1">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>135000000</v>
+      </c>
+      <c r="C270" s="1">
+        <v>81</v>
+      </c>
+      <c r="D270" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>135500000</v>
+      </c>
+      <c r="C271" s="1">
+        <v>81</v>
+      </c>
+      <c r="D271" s="1">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <v>136000000</v>
+      </c>
+      <c r="C272" s="1">
+        <v>81</v>
+      </c>
+      <c r="D272" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <v>136500000</v>
+      </c>
+      <c r="C273" s="1">
+        <v>81</v>
+      </c>
+      <c r="D273" s="1">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <v>137000000</v>
+      </c>
+      <c r="C274" s="1">
+        <v>81</v>
+      </c>
+      <c r="D274" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <v>137500000</v>
+      </c>
+      <c r="C275" s="1">
+        <v>81</v>
+      </c>
+      <c r="D275" s="1">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>138000000</v>
+      </c>
+      <c r="C276" s="1">
+        <v>81</v>
+      </c>
+      <c r="D276" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2">
+        <v>138500000</v>
+      </c>
+      <c r="C277" s="1">
+        <v>81</v>
+      </c>
+      <c r="D277" s="1">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2">
+        <v>139000000</v>
+      </c>
+      <c r="C278" s="1">
+        <v>81</v>
+      </c>
+      <c r="D278" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <v>139500000</v>
+      </c>
+      <c r="C279" s="1">
+        <v>81</v>
+      </c>
+      <c r="D279" s="1">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <v>140000000</v>
+      </c>
+      <c r="C280" s="1">
+        <v>81</v>
+      </c>
+      <c r="D280" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>140500000</v>
+      </c>
+      <c r="C281" s="1">
+        <v>81</v>
+      </c>
+      <c r="D281" s="1">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <v>141000000</v>
+      </c>
+      <c r="C282" s="1">
+        <v>81</v>
+      </c>
+      <c r="D282" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <v>141500000</v>
+      </c>
+      <c r="C283" s="1">
+        <v>81</v>
+      </c>
+      <c r="D283" s="1">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <v>142000000</v>
+      </c>
+      <c r="C284" s="1">
+        <v>81</v>
+      </c>
+      <c r="D284" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <v>142500000</v>
+      </c>
+      <c r="C285" s="1">
+        <v>81</v>
+      </c>
+      <c r="D285" s="1">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <v>143000000</v>
+      </c>
+      <c r="C286" s="1">
+        <v>81</v>
+      </c>
+      <c r="D286" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <v>143500000</v>
+      </c>
+      <c r="C287" s="1">
+        <v>81</v>
+      </c>
+      <c r="D287" s="1">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>144000000</v>
+      </c>
+      <c r="C288" s="1">
+        <v>81</v>
+      </c>
+      <c r="D288" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <v>144500000</v>
+      </c>
+      <c r="C289" s="1">
+        <v>81</v>
+      </c>
+      <c r="D289" s="1">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <v>145000000</v>
+      </c>
+      <c r="C290" s="1">
+        <v>81</v>
+      </c>
+      <c r="D290" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>145500000</v>
+      </c>
+      <c r="C291" s="1">
+        <v>81</v>
+      </c>
+      <c r="D291" s="1">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>146000000</v>
+      </c>
+      <c r="C292" s="1">
+        <v>81</v>
+      </c>
+      <c r="D292" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <v>146500000</v>
+      </c>
+      <c r="C293" s="1">
+        <v>81</v>
+      </c>
+      <c r="D293" s="1">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>147000000</v>
+      </c>
+      <c r="C294" s="1">
+        <v>81</v>
+      </c>
+      <c r="D294" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>147500000</v>
+      </c>
+      <c r="C295" s="1">
+        <v>81</v>
+      </c>
+      <c r="D295" s="1">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>148000000</v>
+      </c>
+      <c r="C296" s="1">
+        <v>81</v>
+      </c>
+      <c r="D296" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>148500000</v>
+      </c>
+      <c r="C297" s="1">
+        <v>81</v>
+      </c>
+      <c r="D297" s="1">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>149000000</v>
+      </c>
+      <c r="C298" s="1">
+        <v>81</v>
+      </c>
+      <c r="D298" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>149500000</v>
+      </c>
+      <c r="C299" s="1">
+        <v>81</v>
+      </c>
+      <c r="D299" s="1">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="C300" s="1">
+        <v>81</v>
+      </c>
+      <c r="D300" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>150500000</v>
+      </c>
+      <c r="C301" s="1">
+        <v>81</v>
+      </c>
+      <c r="D301" s="1">
+        <v>142.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/RelicEnhance.xlsx
+++ b/Assets/06.Table/RelicEnhance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C9214-F25E-4E85-AEB8-6EB6BA3385B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3E0D5-02E3-49BE-9FCA-8DD00F52D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicEnhance" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4664,6 +4664,1406 @@
         <v>142.5</v>
       </c>
     </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>151000000</v>
+      </c>
+      <c r="C302" s="1">
+        <v>81</v>
+      </c>
+      <c r="D302" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>151500000</v>
+      </c>
+      <c r="C303" s="1">
+        <v>81</v>
+      </c>
+      <c r="D303" s="1">
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>152000000</v>
+      </c>
+      <c r="C304" s="1">
+        <v>81</v>
+      </c>
+      <c r="D304" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>152500000</v>
+      </c>
+      <c r="C305" s="1">
+        <v>81</v>
+      </c>
+      <c r="D305" s="1">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>153000000</v>
+      </c>
+      <c r="C306" s="1">
+        <v>81</v>
+      </c>
+      <c r="D306" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>153500000</v>
+      </c>
+      <c r="C307" s="1">
+        <v>81</v>
+      </c>
+      <c r="D307" s="1">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <v>154000000</v>
+      </c>
+      <c r="C308" s="1">
+        <v>81</v>
+      </c>
+      <c r="D308" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>154500000</v>
+      </c>
+      <c r="C309" s="1">
+        <v>81</v>
+      </c>
+      <c r="D309" s="1">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>155000000</v>
+      </c>
+      <c r="C310" s="1">
+        <v>81</v>
+      </c>
+      <c r="D310" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>155500000</v>
+      </c>
+      <c r="C311" s="1">
+        <v>81</v>
+      </c>
+      <c r="D311" s="1">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>156000000</v>
+      </c>
+      <c r="C312" s="1">
+        <v>81</v>
+      </c>
+      <c r="D312" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <v>156500000</v>
+      </c>
+      <c r="C313" s="1">
+        <v>81</v>
+      </c>
+      <c r="D313" s="1">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>157000000</v>
+      </c>
+      <c r="C314" s="1">
+        <v>81</v>
+      </c>
+      <c r="D314" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>157500000</v>
+      </c>
+      <c r="C315" s="1">
+        <v>81</v>
+      </c>
+      <c r="D315" s="1">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>158000000</v>
+      </c>
+      <c r="C316" s="1">
+        <v>81</v>
+      </c>
+      <c r="D316" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>158500000</v>
+      </c>
+      <c r="C317" s="1">
+        <v>81</v>
+      </c>
+      <c r="D317" s="1">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>159000000</v>
+      </c>
+      <c r="C318" s="1">
+        <v>81</v>
+      </c>
+      <c r="D318" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>159500000</v>
+      </c>
+      <c r="C319" s="1">
+        <v>81</v>
+      </c>
+      <c r="D319" s="1">
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>160000000</v>
+      </c>
+      <c r="C320" s="1">
+        <v>81</v>
+      </c>
+      <c r="D320" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>160500000</v>
+      </c>
+      <c r="C321" s="1">
+        <v>81</v>
+      </c>
+      <c r="D321" s="1">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>161000000</v>
+      </c>
+      <c r="C322" s="1">
+        <v>81</v>
+      </c>
+      <c r="D322" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>161500000</v>
+      </c>
+      <c r="C323" s="1">
+        <v>81</v>
+      </c>
+      <c r="D323" s="1">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>162000000</v>
+      </c>
+      <c r="C324" s="1">
+        <v>81</v>
+      </c>
+      <c r="D324" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>162500000</v>
+      </c>
+      <c r="C325" s="1">
+        <v>81</v>
+      </c>
+      <c r="D325" s="1">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>163000000</v>
+      </c>
+      <c r="C326" s="1">
+        <v>81</v>
+      </c>
+      <c r="D326" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>163500000</v>
+      </c>
+      <c r="C327" s="1">
+        <v>81</v>
+      </c>
+      <c r="D327" s="1">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>164000000</v>
+      </c>
+      <c r="C328" s="1">
+        <v>81</v>
+      </c>
+      <c r="D328" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>164500000</v>
+      </c>
+      <c r="C329" s="1">
+        <v>81</v>
+      </c>
+      <c r="D329" s="1">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>165000000</v>
+      </c>
+      <c r="C330" s="1">
+        <v>81</v>
+      </c>
+      <c r="D330" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>165500000</v>
+      </c>
+      <c r="C331" s="1">
+        <v>81</v>
+      </c>
+      <c r="D331" s="1">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>166000000</v>
+      </c>
+      <c r="C332" s="1">
+        <v>81</v>
+      </c>
+      <c r="D332" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>166500000</v>
+      </c>
+      <c r="C333" s="1">
+        <v>81</v>
+      </c>
+      <c r="D333" s="1">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>167000000</v>
+      </c>
+      <c r="C334" s="1">
+        <v>81</v>
+      </c>
+      <c r="D334" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>167500000</v>
+      </c>
+      <c r="C335" s="1">
+        <v>81</v>
+      </c>
+      <c r="D335" s="1">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>168000000</v>
+      </c>
+      <c r="C336" s="1">
+        <v>81</v>
+      </c>
+      <c r="D336" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>168500000</v>
+      </c>
+      <c r="C337" s="1">
+        <v>81</v>
+      </c>
+      <c r="D337" s="1">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>169000000</v>
+      </c>
+      <c r="C338" s="1">
+        <v>81</v>
+      </c>
+      <c r="D338" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>169500000</v>
+      </c>
+      <c r="C339" s="1">
+        <v>81</v>
+      </c>
+      <c r="D339" s="1">
+        <v>161.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>170000000</v>
+      </c>
+      <c r="C340" s="1">
+        <v>81</v>
+      </c>
+      <c r="D340" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>170500000</v>
+      </c>
+      <c r="C341" s="1">
+        <v>81</v>
+      </c>
+      <c r="D341" s="1">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>171000000</v>
+      </c>
+      <c r="C342" s="1">
+        <v>81</v>
+      </c>
+      <c r="D342" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>171500000</v>
+      </c>
+      <c r="C343" s="1">
+        <v>81</v>
+      </c>
+      <c r="D343" s="1">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>172000000</v>
+      </c>
+      <c r="C344" s="1">
+        <v>81</v>
+      </c>
+      <c r="D344" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>172500000</v>
+      </c>
+      <c r="C345" s="1">
+        <v>81</v>
+      </c>
+      <c r="D345" s="1">
+        <v>164.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>173000000</v>
+      </c>
+      <c r="C346" s="1">
+        <v>81</v>
+      </c>
+      <c r="D346" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>173500000</v>
+      </c>
+      <c r="C347" s="1">
+        <v>81</v>
+      </c>
+      <c r="D347" s="1">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>174000000</v>
+      </c>
+      <c r="C348" s="1">
+        <v>81</v>
+      </c>
+      <c r="D348" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>174500000</v>
+      </c>
+      <c r="C349" s="1">
+        <v>81</v>
+      </c>
+      <c r="D349" s="1">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>175000000</v>
+      </c>
+      <c r="C350" s="1">
+        <v>81</v>
+      </c>
+      <c r="D350" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>175500000</v>
+      </c>
+      <c r="C351" s="1">
+        <v>81</v>
+      </c>
+      <c r="D351" s="1">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>176000000</v>
+      </c>
+      <c r="C352" s="1">
+        <v>81</v>
+      </c>
+      <c r="D352" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>176500000</v>
+      </c>
+      <c r="C353" s="1">
+        <v>81</v>
+      </c>
+      <c r="D353" s="1">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>177000000</v>
+      </c>
+      <c r="C354" s="1">
+        <v>81</v>
+      </c>
+      <c r="D354" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>177500000</v>
+      </c>
+      <c r="C355" s="1">
+        <v>81</v>
+      </c>
+      <c r="D355" s="1">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>178000000</v>
+      </c>
+      <c r="C356" s="1">
+        <v>81</v>
+      </c>
+      <c r="D356" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>178500000</v>
+      </c>
+      <c r="C357" s="1">
+        <v>81</v>
+      </c>
+      <c r="D357" s="1">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>179000000</v>
+      </c>
+      <c r="C358" s="1">
+        <v>81</v>
+      </c>
+      <c r="D358" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>179500000</v>
+      </c>
+      <c r="C359" s="1">
+        <v>81</v>
+      </c>
+      <c r="D359" s="1">
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>180000000</v>
+      </c>
+      <c r="C360" s="1">
+        <v>81</v>
+      </c>
+      <c r="D360" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>180500000</v>
+      </c>
+      <c r="C361" s="1">
+        <v>81</v>
+      </c>
+      <c r="D361" s="1">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>181000000</v>
+      </c>
+      <c r="C362" s="1">
+        <v>81</v>
+      </c>
+      <c r="D362" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>181500000</v>
+      </c>
+      <c r="C363" s="1">
+        <v>81</v>
+      </c>
+      <c r="D363" s="1">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>182000000</v>
+      </c>
+      <c r="C364" s="1">
+        <v>81</v>
+      </c>
+      <c r="D364" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>182500000</v>
+      </c>
+      <c r="C365" s="1">
+        <v>81</v>
+      </c>
+      <c r="D365" s="1">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>183000000</v>
+      </c>
+      <c r="C366" s="1">
+        <v>81</v>
+      </c>
+      <c r="D366" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>183500000</v>
+      </c>
+      <c r="C367" s="1">
+        <v>81</v>
+      </c>
+      <c r="D367" s="1">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>184000000</v>
+      </c>
+      <c r="C368" s="1">
+        <v>81</v>
+      </c>
+      <c r="D368" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>184500000</v>
+      </c>
+      <c r="C369" s="1">
+        <v>81</v>
+      </c>
+      <c r="D369" s="1">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>185000000</v>
+      </c>
+      <c r="C370" s="1">
+        <v>81</v>
+      </c>
+      <c r="D370" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>185500000</v>
+      </c>
+      <c r="C371" s="1">
+        <v>81</v>
+      </c>
+      <c r="D371" s="1">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>186000000</v>
+      </c>
+      <c r="C372" s="1">
+        <v>81</v>
+      </c>
+      <c r="D372" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>186500000</v>
+      </c>
+      <c r="C373" s="1">
+        <v>81</v>
+      </c>
+      <c r="D373" s="1">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>187000000</v>
+      </c>
+      <c r="C374" s="1">
+        <v>81</v>
+      </c>
+      <c r="D374" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>187500000</v>
+      </c>
+      <c r="C375" s="1">
+        <v>81</v>
+      </c>
+      <c r="D375" s="1">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>188000000</v>
+      </c>
+      <c r="C376" s="1">
+        <v>81</v>
+      </c>
+      <c r="D376" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>188500000</v>
+      </c>
+      <c r="C377" s="1">
+        <v>81</v>
+      </c>
+      <c r="D377" s="1">
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>189000000</v>
+      </c>
+      <c r="C378" s="1">
+        <v>81</v>
+      </c>
+      <c r="D378" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>189500000</v>
+      </c>
+      <c r="C379" s="1">
+        <v>81</v>
+      </c>
+      <c r="D379" s="1">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>190000000</v>
+      </c>
+      <c r="C380" s="1">
+        <v>81</v>
+      </c>
+      <c r="D380" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>190500000</v>
+      </c>
+      <c r="C381" s="1">
+        <v>81</v>
+      </c>
+      <c r="D381" s="1">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>191000000</v>
+      </c>
+      <c r="C382" s="1">
+        <v>81</v>
+      </c>
+      <c r="D382" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>191500000</v>
+      </c>
+      <c r="C383" s="1">
+        <v>81</v>
+      </c>
+      <c r="D383" s="1">
+        <v>183.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>192000000</v>
+      </c>
+      <c r="C384" s="1">
+        <v>81</v>
+      </c>
+      <c r="D384" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>192500000</v>
+      </c>
+      <c r="C385" s="1">
+        <v>81</v>
+      </c>
+      <c r="D385" s="1">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>193000000</v>
+      </c>
+      <c r="C386" s="1">
+        <v>81</v>
+      </c>
+      <c r="D386" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>193500000</v>
+      </c>
+      <c r="C387" s="1">
+        <v>81</v>
+      </c>
+      <c r="D387" s="1">
+        <v>185.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>194000000</v>
+      </c>
+      <c r="C388" s="1">
+        <v>81</v>
+      </c>
+      <c r="D388" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>194500000</v>
+      </c>
+      <c r="C389" s="1">
+        <v>81</v>
+      </c>
+      <c r="D389" s="1">
+        <v>186.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>195000000</v>
+      </c>
+      <c r="C390" s="1">
+        <v>81</v>
+      </c>
+      <c r="D390" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>195500000</v>
+      </c>
+      <c r="C391" s="1">
+        <v>81</v>
+      </c>
+      <c r="D391" s="1">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>196000000</v>
+      </c>
+      <c r="C392" s="1">
+        <v>81</v>
+      </c>
+      <c r="D392" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>196500000</v>
+      </c>
+      <c r="C393" s="1">
+        <v>81</v>
+      </c>
+      <c r="D393" s="1">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>197000000</v>
+      </c>
+      <c r="C394" s="1">
+        <v>81</v>
+      </c>
+      <c r="D394" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>197500000</v>
+      </c>
+      <c r="C395" s="1">
+        <v>81</v>
+      </c>
+      <c r="D395" s="1">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>198000000</v>
+      </c>
+      <c r="C396" s="1">
+        <v>81</v>
+      </c>
+      <c r="D396" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>198500000</v>
+      </c>
+      <c r="C397" s="1">
+        <v>81</v>
+      </c>
+      <c r="D397" s="1">
+        <v>190.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>199000000</v>
+      </c>
+      <c r="C398" s="1">
+        <v>81</v>
+      </c>
+      <c r="D398" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>199500000</v>
+      </c>
+      <c r="C399" s="1">
+        <v>81</v>
+      </c>
+      <c r="D399" s="1">
+        <v>191.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="C400" s="1">
+        <v>81</v>
+      </c>
+      <c r="D400" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>200500000</v>
+      </c>
+      <c r="C401" s="1">
+        <v>81</v>
+      </c>
+      <c r="D401" s="1">
+        <v>192.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/RelicEnhance.xlsx
+++ b/Assets/06.Table/RelicEnhance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3E0D5-02E3-49BE-9FCA-8DD00F52D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B524D0E3-4BB9-4DBD-A29F-8FAA7BCC126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6064,6 +6064,1406 @@
         <v>192.5</v>
       </c>
     </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>201000000</v>
+      </c>
+      <c r="C402" s="1">
+        <v>81</v>
+      </c>
+      <c r="D402" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>201500000</v>
+      </c>
+      <c r="C403" s="1">
+        <v>81</v>
+      </c>
+      <c r="D403" s="1">
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>202000000</v>
+      </c>
+      <c r="C404" s="1">
+        <v>81</v>
+      </c>
+      <c r="D404" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>202500000</v>
+      </c>
+      <c r="C405" s="1">
+        <v>81</v>
+      </c>
+      <c r="D405" s="1">
+        <v>194.5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>203000000</v>
+      </c>
+      <c r="C406" s="1">
+        <v>81</v>
+      </c>
+      <c r="D406" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>203500000</v>
+      </c>
+      <c r="C407" s="1">
+        <v>81</v>
+      </c>
+      <c r="D407" s="1">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>204000000</v>
+      </c>
+      <c r="C408" s="1">
+        <v>81</v>
+      </c>
+      <c r="D408" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>204500000</v>
+      </c>
+      <c r="C409" s="1">
+        <v>81</v>
+      </c>
+      <c r="D409" s="1">
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>205000000</v>
+      </c>
+      <c r="C410" s="1">
+        <v>81</v>
+      </c>
+      <c r="D410" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <v>205500000</v>
+      </c>
+      <c r="C411" s="1">
+        <v>81</v>
+      </c>
+      <c r="D411" s="1">
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2">
+        <v>206000000</v>
+      </c>
+      <c r="C412" s="1">
+        <v>81</v>
+      </c>
+      <c r="D412" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2">
+        <v>206500000</v>
+      </c>
+      <c r="C413" s="1">
+        <v>81</v>
+      </c>
+      <c r="D413" s="1">
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2">
+        <v>207000000</v>
+      </c>
+      <c r="C414" s="1">
+        <v>81</v>
+      </c>
+      <c r="D414" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2">
+        <v>207500000</v>
+      </c>
+      <c r="C415" s="1">
+        <v>81</v>
+      </c>
+      <c r="D415" s="1">
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <v>208000000</v>
+      </c>
+      <c r="C416" s="1">
+        <v>81</v>
+      </c>
+      <c r="D416" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2">
+        <v>208500000</v>
+      </c>
+      <c r="C417" s="1">
+        <v>81</v>
+      </c>
+      <c r="D417" s="1">
+        <v>200.5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2">
+        <v>209000000</v>
+      </c>
+      <c r="C418" s="1">
+        <v>81</v>
+      </c>
+      <c r="D418" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2">
+        <v>209500000</v>
+      </c>
+      <c r="C419" s="1">
+        <v>81</v>
+      </c>
+      <c r="D419" s="1">
+        <v>201.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2">
+        <v>210000000</v>
+      </c>
+      <c r="C420" s="1">
+        <v>81</v>
+      </c>
+      <c r="D420" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <v>210500000</v>
+      </c>
+      <c r="C421" s="1">
+        <v>81</v>
+      </c>
+      <c r="D421" s="1">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2">
+        <v>211000000</v>
+      </c>
+      <c r="C422" s="1">
+        <v>81</v>
+      </c>
+      <c r="D422" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2">
+        <v>211500000</v>
+      </c>
+      <c r="C423" s="1">
+        <v>81</v>
+      </c>
+      <c r="D423" s="1">
+        <v>203.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2">
+        <v>212000000</v>
+      </c>
+      <c r="C424" s="1">
+        <v>81</v>
+      </c>
+      <c r="D424" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2">
+        <v>212500000</v>
+      </c>
+      <c r="C425" s="1">
+        <v>81</v>
+      </c>
+      <c r="D425" s="1">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <v>213000000</v>
+      </c>
+      <c r="C426" s="1">
+        <v>81</v>
+      </c>
+      <c r="D426" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2">
+        <v>213500000</v>
+      </c>
+      <c r="C427" s="1">
+        <v>81</v>
+      </c>
+      <c r="D427" s="1">
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2">
+        <v>214000000</v>
+      </c>
+      <c r="C428" s="1">
+        <v>81</v>
+      </c>
+      <c r="D428" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2">
+        <v>214500000</v>
+      </c>
+      <c r="C429" s="1">
+        <v>81</v>
+      </c>
+      <c r="D429" s="1">
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2">
+        <v>215000000</v>
+      </c>
+      <c r="C430" s="1">
+        <v>81</v>
+      </c>
+      <c r="D430" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2">
+        <v>215500000</v>
+      </c>
+      <c r="C431" s="1">
+        <v>81</v>
+      </c>
+      <c r="D431" s="1">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2">
+        <v>216000000</v>
+      </c>
+      <c r="C432" s="1">
+        <v>81</v>
+      </c>
+      <c r="D432" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2">
+        <v>216500000</v>
+      </c>
+      <c r="C433" s="1">
+        <v>81</v>
+      </c>
+      <c r="D433" s="1">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2">
+        <v>217000000</v>
+      </c>
+      <c r="C434" s="1">
+        <v>81</v>
+      </c>
+      <c r="D434" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2">
+        <v>217500000</v>
+      </c>
+      <c r="C435" s="1">
+        <v>81</v>
+      </c>
+      <c r="D435" s="1">
+        <v>209.5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2">
+        <v>218000000</v>
+      </c>
+      <c r="C436" s="1">
+        <v>81</v>
+      </c>
+      <c r="D436" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2">
+        <v>218500000</v>
+      </c>
+      <c r="C437" s="1">
+        <v>81</v>
+      </c>
+      <c r="D437" s="1">
+        <v>210.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2">
+        <v>219000000</v>
+      </c>
+      <c r="C438" s="1">
+        <v>81</v>
+      </c>
+      <c r="D438" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2">
+        <v>219500000</v>
+      </c>
+      <c r="C439" s="1">
+        <v>81</v>
+      </c>
+      <c r="D439" s="1">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2">
+        <v>220000000</v>
+      </c>
+      <c r="C440" s="1">
+        <v>81</v>
+      </c>
+      <c r="D440" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2">
+        <v>220500000</v>
+      </c>
+      <c r="C441" s="1">
+        <v>81</v>
+      </c>
+      <c r="D441" s="1">
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2">
+        <v>221000000</v>
+      </c>
+      <c r="C442" s="1">
+        <v>81</v>
+      </c>
+      <c r="D442" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2">
+        <v>221500000</v>
+      </c>
+      <c r="C443" s="1">
+        <v>81</v>
+      </c>
+      <c r="D443" s="1">
+        <v>213.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2">
+        <v>222000000</v>
+      </c>
+      <c r="C444" s="1">
+        <v>81</v>
+      </c>
+      <c r="D444" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2">
+        <v>222500000</v>
+      </c>
+      <c r="C445" s="1">
+        <v>81</v>
+      </c>
+      <c r="D445" s="1">
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2">
+        <v>223000000</v>
+      </c>
+      <c r="C446" s="1">
+        <v>81</v>
+      </c>
+      <c r="D446" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2">
+        <v>223500000</v>
+      </c>
+      <c r="C447" s="1">
+        <v>81</v>
+      </c>
+      <c r="D447" s="1">
+        <v>215.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2">
+        <v>224000000</v>
+      </c>
+      <c r="C448" s="1">
+        <v>81</v>
+      </c>
+      <c r="D448" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2">
+        <v>224500000</v>
+      </c>
+      <c r="C449" s="1">
+        <v>81</v>
+      </c>
+      <c r="D449" s="1">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2">
+        <v>225000000</v>
+      </c>
+      <c r="C450" s="1">
+        <v>81</v>
+      </c>
+      <c r="D450" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2">
+        <v>225500000</v>
+      </c>
+      <c r="C451" s="1">
+        <v>81</v>
+      </c>
+      <c r="D451" s="1">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2">
+        <v>226000000</v>
+      </c>
+      <c r="C452" s="1">
+        <v>81</v>
+      </c>
+      <c r="D452" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2">
+        <v>226500000</v>
+      </c>
+      <c r="C453" s="1">
+        <v>81</v>
+      </c>
+      <c r="D453" s="1">
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2">
+        <v>227000000</v>
+      </c>
+      <c r="C454" s="1">
+        <v>81</v>
+      </c>
+      <c r="D454" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2">
+        <v>227500000</v>
+      </c>
+      <c r="C455" s="1">
+        <v>81</v>
+      </c>
+      <c r="D455" s="1">
+        <v>219.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2">
+        <v>228000000</v>
+      </c>
+      <c r="C456" s="1">
+        <v>81</v>
+      </c>
+      <c r="D456" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2">
+        <v>228500000</v>
+      </c>
+      <c r="C457" s="1">
+        <v>81</v>
+      </c>
+      <c r="D457" s="1">
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2">
+        <v>229000000</v>
+      </c>
+      <c r="C458" s="1">
+        <v>81</v>
+      </c>
+      <c r="D458" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2">
+        <v>229500000</v>
+      </c>
+      <c r="C459" s="1">
+        <v>81</v>
+      </c>
+      <c r="D459" s="1">
+        <v>221.5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2">
+        <v>230000000</v>
+      </c>
+      <c r="C460" s="1">
+        <v>81</v>
+      </c>
+      <c r="D460" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2">
+        <v>230500000</v>
+      </c>
+      <c r="C461" s="1">
+        <v>81</v>
+      </c>
+      <c r="D461" s="1">
+        <v>222.5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2">
+        <v>231000000</v>
+      </c>
+      <c r="C462" s="1">
+        <v>81</v>
+      </c>
+      <c r="D462" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2">
+        <v>231500000</v>
+      </c>
+      <c r="C463" s="1">
+        <v>81</v>
+      </c>
+      <c r="D463" s="1">
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2">
+        <v>232000000</v>
+      </c>
+      <c r="C464" s="1">
+        <v>81</v>
+      </c>
+      <c r="D464" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2">
+        <v>232500000</v>
+      </c>
+      <c r="C465" s="1">
+        <v>81</v>
+      </c>
+      <c r="D465" s="1">
+        <v>224.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2">
+        <v>233000000</v>
+      </c>
+      <c r="C466" s="1">
+        <v>81</v>
+      </c>
+      <c r="D466" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2">
+        <v>233500000</v>
+      </c>
+      <c r="C467" s="1">
+        <v>81</v>
+      </c>
+      <c r="D467" s="1">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2">
+        <v>234000000</v>
+      </c>
+      <c r="C468" s="1">
+        <v>81</v>
+      </c>
+      <c r="D468" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2">
+        <v>234500000</v>
+      </c>
+      <c r="C469" s="1">
+        <v>81</v>
+      </c>
+      <c r="D469" s="1">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2">
+        <v>235000000</v>
+      </c>
+      <c r="C470" s="1">
+        <v>81</v>
+      </c>
+      <c r="D470" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2">
+        <v>235500000</v>
+      </c>
+      <c r="C471" s="1">
+        <v>81</v>
+      </c>
+      <c r="D471" s="1">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2">
+        <v>236000000</v>
+      </c>
+      <c r="C472" s="1">
+        <v>81</v>
+      </c>
+      <c r="D472" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2">
+        <v>236500000</v>
+      </c>
+      <c r="C473" s="1">
+        <v>81</v>
+      </c>
+      <c r="D473" s="1">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2">
+        <v>237000000</v>
+      </c>
+      <c r="C474" s="1">
+        <v>81</v>
+      </c>
+      <c r="D474" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2">
+        <v>237500000</v>
+      </c>
+      <c r="C475" s="1">
+        <v>81</v>
+      </c>
+      <c r="D475" s="1">
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2">
+        <v>238000000</v>
+      </c>
+      <c r="C476" s="1">
+        <v>81</v>
+      </c>
+      <c r="D476" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2">
+        <v>238500000</v>
+      </c>
+      <c r="C477" s="1">
+        <v>81</v>
+      </c>
+      <c r="D477" s="1">
+        <v>230.5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2">
+        <v>239000000</v>
+      </c>
+      <c r="C478" s="1">
+        <v>81</v>
+      </c>
+      <c r="D478" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2">
+        <v>239500000</v>
+      </c>
+      <c r="C479" s="1">
+        <v>81</v>
+      </c>
+      <c r="D479" s="1">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2">
+        <v>240000000</v>
+      </c>
+      <c r="C480" s="1">
+        <v>81</v>
+      </c>
+      <c r="D480" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2">
+        <v>240500000</v>
+      </c>
+      <c r="C481" s="1">
+        <v>81</v>
+      </c>
+      <c r="D481" s="1">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2">
+        <v>241000000</v>
+      </c>
+      <c r="C482" s="1">
+        <v>81</v>
+      </c>
+      <c r="D482" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2">
+        <v>241500000</v>
+      </c>
+      <c r="C483" s="1">
+        <v>81</v>
+      </c>
+      <c r="D483" s="1">
+        <v>233.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2">
+        <v>242000000</v>
+      </c>
+      <c r="C484" s="1">
+        <v>81</v>
+      </c>
+      <c r="D484" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2">
+        <v>242500000</v>
+      </c>
+      <c r="C485" s="1">
+        <v>81</v>
+      </c>
+      <c r="D485" s="1">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2">
+        <v>243000000</v>
+      </c>
+      <c r="C486" s="1">
+        <v>81</v>
+      </c>
+      <c r="D486" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2">
+        <v>243500000</v>
+      </c>
+      <c r="C487" s="1">
+        <v>81</v>
+      </c>
+      <c r="D487" s="1">
+        <v>235.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2">
+        <v>244000000</v>
+      </c>
+      <c r="C488" s="1">
+        <v>81</v>
+      </c>
+      <c r="D488" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2">
+        <v>244500000</v>
+      </c>
+      <c r="C489" s="1">
+        <v>81</v>
+      </c>
+      <c r="D489" s="1">
+        <v>236.5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2">
+        <v>245000000</v>
+      </c>
+      <c r="C490" s="1">
+        <v>81</v>
+      </c>
+      <c r="D490" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2">
+        <v>245500000</v>
+      </c>
+      <c r="C491" s="1">
+        <v>81</v>
+      </c>
+      <c r="D491" s="1">
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2">
+        <v>246000000</v>
+      </c>
+      <c r="C492" s="1">
+        <v>81</v>
+      </c>
+      <c r="D492" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2">
+        <v>246500000</v>
+      </c>
+      <c r="C493" s="1">
+        <v>81</v>
+      </c>
+      <c r="D493" s="1">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2">
+        <v>247000000</v>
+      </c>
+      <c r="C494" s="1">
+        <v>81</v>
+      </c>
+      <c r="D494" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2">
+        <v>247500000</v>
+      </c>
+      <c r="C495" s="1">
+        <v>81</v>
+      </c>
+      <c r="D495" s="1">
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2">
+        <v>248000000</v>
+      </c>
+      <c r="C496" s="1">
+        <v>81</v>
+      </c>
+      <c r="D496" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2">
+        <v>248500000</v>
+      </c>
+      <c r="C497" s="1">
+        <v>81</v>
+      </c>
+      <c r="D497" s="1">
+        <v>240.5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2">
+        <v>249000000</v>
+      </c>
+      <c r="C498" s="1">
+        <v>81</v>
+      </c>
+      <c r="D498" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2">
+        <v>249500000</v>
+      </c>
+      <c r="C499" s="1">
+        <v>81</v>
+      </c>
+      <c r="D499" s="1">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2">
+        <v>250000000</v>
+      </c>
+      <c r="C500" s="1">
+        <v>81</v>
+      </c>
+      <c r="D500" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2">
+        <v>250500000</v>
+      </c>
+      <c r="C501" s="1">
+        <v>81</v>
+      </c>
+      <c r="D501" s="1">
+        <v>242.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/RelicEnhance.xlsx
+++ b/Assets/06.Table/RelicEnhance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B524D0E3-4BB9-4DBD-A29F-8FAA7BCC126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7EC0A1-2D05-4BE7-8A59-B259BE25D759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="28830" windowHeight="7770" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicEnhance" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D701"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B501" sqref="B501"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B697" sqref="B697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7464,6 +7464,2806 @@
         <v>242.5</v>
       </c>
     </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2">
+        <v>251000000</v>
+      </c>
+      <c r="C502" s="1">
+        <v>81</v>
+      </c>
+      <c r="D502" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2">
+        <v>251500000</v>
+      </c>
+      <c r="C503" s="1">
+        <v>81</v>
+      </c>
+      <c r="D503" s="1">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2">
+        <v>252000000</v>
+      </c>
+      <c r="C504" s="1">
+        <v>81</v>
+      </c>
+      <c r="D504" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2">
+        <v>252500000</v>
+      </c>
+      <c r="C505" s="1">
+        <v>81</v>
+      </c>
+      <c r="D505" s="1">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2">
+        <v>253000000</v>
+      </c>
+      <c r="C506" s="1">
+        <v>81</v>
+      </c>
+      <c r="D506" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2">
+        <v>253500000</v>
+      </c>
+      <c r="C507" s="1">
+        <v>81</v>
+      </c>
+      <c r="D507" s="1">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2">
+        <v>254000000</v>
+      </c>
+      <c r="C508" s="1">
+        <v>81</v>
+      </c>
+      <c r="D508" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2">
+        <v>254500000</v>
+      </c>
+      <c r="C509" s="1">
+        <v>81</v>
+      </c>
+      <c r="D509" s="1">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2">
+        <v>255000000</v>
+      </c>
+      <c r="C510" s="1">
+        <v>81</v>
+      </c>
+      <c r="D510" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2">
+        <v>255500000</v>
+      </c>
+      <c r="C511" s="1">
+        <v>81</v>
+      </c>
+      <c r="D511" s="1">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2">
+        <v>256000000</v>
+      </c>
+      <c r="C512" s="1">
+        <v>81</v>
+      </c>
+      <c r="D512" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2">
+        <v>256500000</v>
+      </c>
+      <c r="C513" s="1">
+        <v>81</v>
+      </c>
+      <c r="D513" s="1">
+        <v>248.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2">
+        <v>257000000</v>
+      </c>
+      <c r="C514" s="1">
+        <v>81</v>
+      </c>
+      <c r="D514" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2">
+        <v>257500000</v>
+      </c>
+      <c r="C515" s="1">
+        <v>81</v>
+      </c>
+      <c r="D515" s="1">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2">
+        <v>258000000</v>
+      </c>
+      <c r="C516" s="1">
+        <v>81</v>
+      </c>
+      <c r="D516" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2">
+        <v>258500000</v>
+      </c>
+      <c r="C517" s="1">
+        <v>81</v>
+      </c>
+      <c r="D517" s="1">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2">
+        <v>259000000</v>
+      </c>
+      <c r="C518" s="1">
+        <v>81</v>
+      </c>
+      <c r="D518" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2">
+        <v>259500000</v>
+      </c>
+      <c r="C519" s="1">
+        <v>81</v>
+      </c>
+      <c r="D519" s="1">
+        <v>251.5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2">
+        <v>260000000</v>
+      </c>
+      <c r="C520" s="1">
+        <v>81</v>
+      </c>
+      <c r="D520" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2">
+        <v>260500000</v>
+      </c>
+      <c r="C521" s="1">
+        <v>81</v>
+      </c>
+      <c r="D521" s="1">
+        <v>252.5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2">
+        <v>261000000</v>
+      </c>
+      <c r="C522" s="1">
+        <v>81</v>
+      </c>
+      <c r="D522" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2">
+        <v>261500000</v>
+      </c>
+      <c r="C523" s="1">
+        <v>81</v>
+      </c>
+      <c r="D523" s="1">
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2">
+        <v>262000000</v>
+      </c>
+      <c r="C524" s="1">
+        <v>81</v>
+      </c>
+      <c r="D524" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2">
+        <v>262500000</v>
+      </c>
+      <c r="C525" s="1">
+        <v>81</v>
+      </c>
+      <c r="D525" s="1">
+        <v>254.5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2">
+        <v>263000000</v>
+      </c>
+      <c r="C526" s="1">
+        <v>81</v>
+      </c>
+      <c r="D526" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2">
+        <v>263500000</v>
+      </c>
+      <c r="C527" s="1">
+        <v>81</v>
+      </c>
+      <c r="D527" s="1">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2">
+        <v>264000000</v>
+      </c>
+      <c r="C528" s="1">
+        <v>81</v>
+      </c>
+      <c r="D528" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2">
+        <v>264500000</v>
+      </c>
+      <c r="C529" s="1">
+        <v>81</v>
+      </c>
+      <c r="D529" s="1">
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2">
+        <v>265000000</v>
+      </c>
+      <c r="C530" s="1">
+        <v>81</v>
+      </c>
+      <c r="D530" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2">
+        <v>265500000</v>
+      </c>
+      <c r="C531" s="1">
+        <v>81</v>
+      </c>
+      <c r="D531" s="1">
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2">
+        <v>266000000</v>
+      </c>
+      <c r="C532" s="1">
+        <v>81</v>
+      </c>
+      <c r="D532" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2">
+        <v>266500000</v>
+      </c>
+      <c r="C533" s="1">
+        <v>81</v>
+      </c>
+      <c r="D533" s="1">
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2">
+        <v>267000000</v>
+      </c>
+      <c r="C534" s="1">
+        <v>81</v>
+      </c>
+      <c r="D534" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2">
+        <v>267500000</v>
+      </c>
+      <c r="C535" s="1">
+        <v>81</v>
+      </c>
+      <c r="D535" s="1">
+        <v>259.5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2">
+        <v>268000000</v>
+      </c>
+      <c r="C536" s="1">
+        <v>81</v>
+      </c>
+      <c r="D536" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2">
+        <v>268500000</v>
+      </c>
+      <c r="C537" s="1">
+        <v>81</v>
+      </c>
+      <c r="D537" s="1">
+        <v>260.5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2">
+        <v>269000000</v>
+      </c>
+      <c r="C538" s="1">
+        <v>81</v>
+      </c>
+      <c r="D538" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2">
+        <v>269500000</v>
+      </c>
+      <c r="C539" s="1">
+        <v>81</v>
+      </c>
+      <c r="D539" s="1">
+        <v>261.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2">
+        <v>270000000</v>
+      </c>
+      <c r="C540" s="1">
+        <v>81</v>
+      </c>
+      <c r="D540" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2">
+        <v>270500000</v>
+      </c>
+      <c r="C541" s="1">
+        <v>81</v>
+      </c>
+      <c r="D541" s="1">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2">
+        <v>271000000</v>
+      </c>
+      <c r="C542" s="1">
+        <v>81</v>
+      </c>
+      <c r="D542" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2">
+        <v>271500000</v>
+      </c>
+      <c r="C543" s="1">
+        <v>81</v>
+      </c>
+      <c r="D543" s="1">
+        <v>263.5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2">
+        <v>272000000</v>
+      </c>
+      <c r="C544" s="1">
+        <v>81</v>
+      </c>
+      <c r="D544" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2">
+        <v>272500000</v>
+      </c>
+      <c r="C545" s="1">
+        <v>81</v>
+      </c>
+      <c r="D545" s="1">
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2">
+        <v>273000000</v>
+      </c>
+      <c r="C546" s="1">
+        <v>81</v>
+      </c>
+      <c r="D546" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2">
+        <v>273500000</v>
+      </c>
+      <c r="C547" s="1">
+        <v>81</v>
+      </c>
+      <c r="D547" s="1">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2">
+        <v>274000000</v>
+      </c>
+      <c r="C548" s="1">
+        <v>81</v>
+      </c>
+      <c r="D548" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2">
+        <v>274500000</v>
+      </c>
+      <c r="C549" s="1">
+        <v>81</v>
+      </c>
+      <c r="D549" s="1">
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2">
+        <v>275000000</v>
+      </c>
+      <c r="C550" s="1">
+        <v>81</v>
+      </c>
+      <c r="D550" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2">
+        <v>275500000</v>
+      </c>
+      <c r="C551" s="1">
+        <v>81</v>
+      </c>
+      <c r="D551" s="1">
+        <v>267.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2">
+        <v>276000000</v>
+      </c>
+      <c r="C552" s="1">
+        <v>81</v>
+      </c>
+      <c r="D552" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2">
+        <v>276500000</v>
+      </c>
+      <c r="C553" s="1">
+        <v>81</v>
+      </c>
+      <c r="D553" s="1">
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2">
+        <v>277000000</v>
+      </c>
+      <c r="C554" s="1">
+        <v>81</v>
+      </c>
+      <c r="D554" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2">
+        <v>277500000</v>
+      </c>
+      <c r="C555" s="1">
+        <v>81</v>
+      </c>
+      <c r="D555" s="1">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2">
+        <v>278000000</v>
+      </c>
+      <c r="C556" s="1">
+        <v>81</v>
+      </c>
+      <c r="D556" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2">
+        <v>278500000</v>
+      </c>
+      <c r="C557" s="1">
+        <v>81</v>
+      </c>
+      <c r="D557" s="1">
+        <v>270.5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2">
+        <v>279000000</v>
+      </c>
+      <c r="C558" s="1">
+        <v>81</v>
+      </c>
+      <c r="D558" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2">
+        <v>279500000</v>
+      </c>
+      <c r="C559" s="1">
+        <v>81</v>
+      </c>
+      <c r="D559" s="1">
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2">
+        <v>280000000</v>
+      </c>
+      <c r="C560" s="1">
+        <v>81</v>
+      </c>
+      <c r="D560" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2">
+        <v>280500000</v>
+      </c>
+      <c r="C561" s="1">
+        <v>81</v>
+      </c>
+      <c r="D561" s="1">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2">
+        <v>281000000</v>
+      </c>
+      <c r="C562" s="1">
+        <v>81</v>
+      </c>
+      <c r="D562" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2">
+        <v>281500000</v>
+      </c>
+      <c r="C563" s="1">
+        <v>81</v>
+      </c>
+      <c r="D563" s="1">
+        <v>273.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2">
+        <v>282000000</v>
+      </c>
+      <c r="C564" s="1">
+        <v>81</v>
+      </c>
+      <c r="D564" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2">
+        <v>282500000</v>
+      </c>
+      <c r="C565" s="1">
+        <v>81</v>
+      </c>
+      <c r="D565" s="1">
+        <v>274.5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2">
+        <v>283000000</v>
+      </c>
+      <c r="C566" s="1">
+        <v>81</v>
+      </c>
+      <c r="D566" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2">
+        <v>283500000</v>
+      </c>
+      <c r="C567" s="1">
+        <v>81</v>
+      </c>
+      <c r="D567" s="1">
+        <v>275.5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2">
+        <v>284000000</v>
+      </c>
+      <c r="C568" s="1">
+        <v>81</v>
+      </c>
+      <c r="D568" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2">
+        <v>284500000</v>
+      </c>
+      <c r="C569" s="1">
+        <v>81</v>
+      </c>
+      <c r="D569" s="1">
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2">
+        <v>285000000</v>
+      </c>
+      <c r="C570" s="1">
+        <v>81</v>
+      </c>
+      <c r="D570" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2">
+        <v>285500000</v>
+      </c>
+      <c r="C571" s="1">
+        <v>81</v>
+      </c>
+      <c r="D571" s="1">
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2">
+        <v>286000000</v>
+      </c>
+      <c r="C572" s="1">
+        <v>81</v>
+      </c>
+      <c r="D572" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2">
+        <v>286500000</v>
+      </c>
+      <c r="C573" s="1">
+        <v>81</v>
+      </c>
+      <c r="D573" s="1">
+        <v>278.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2">
+        <v>287000000</v>
+      </c>
+      <c r="C574" s="1">
+        <v>81</v>
+      </c>
+      <c r="D574" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2">
+        <v>287500000</v>
+      </c>
+      <c r="C575" s="1">
+        <v>81</v>
+      </c>
+      <c r="D575" s="1">
+        <v>279.5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2">
+        <v>288000000</v>
+      </c>
+      <c r="C576" s="1">
+        <v>81</v>
+      </c>
+      <c r="D576" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2">
+        <v>288500000</v>
+      </c>
+      <c r="C577" s="1">
+        <v>81</v>
+      </c>
+      <c r="D577" s="1">
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <v>289000000</v>
+      </c>
+      <c r="C578" s="1">
+        <v>81</v>
+      </c>
+      <c r="D578" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2">
+        <v>289500000</v>
+      </c>
+      <c r="C579" s="1">
+        <v>81</v>
+      </c>
+      <c r="D579" s="1">
+        <v>281.5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2">
+        <v>290000000</v>
+      </c>
+      <c r="C580" s="1">
+        <v>81</v>
+      </c>
+      <c r="D580" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2">
+        <v>290500000</v>
+      </c>
+      <c r="C581" s="1">
+        <v>81</v>
+      </c>
+      <c r="D581" s="1">
+        <v>282.5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2">
+        <v>291000000</v>
+      </c>
+      <c r="C582" s="1">
+        <v>81</v>
+      </c>
+      <c r="D582" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2">
+        <v>291500000</v>
+      </c>
+      <c r="C583" s="1">
+        <v>81</v>
+      </c>
+      <c r="D583" s="1">
+        <v>283.5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2">
+        <v>292000000</v>
+      </c>
+      <c r="C584" s="1">
+        <v>81</v>
+      </c>
+      <c r="D584" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2">
+        <v>292500000</v>
+      </c>
+      <c r="C585" s="1">
+        <v>81</v>
+      </c>
+      <c r="D585" s="1">
+        <v>284.5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2">
+        <v>293000000</v>
+      </c>
+      <c r="C586" s="1">
+        <v>81</v>
+      </c>
+      <c r="D586" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2">
+        <v>293500000</v>
+      </c>
+      <c r="C587" s="1">
+        <v>81</v>
+      </c>
+      <c r="D587" s="1">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2">
+        <v>294000000</v>
+      </c>
+      <c r="C588" s="1">
+        <v>81</v>
+      </c>
+      <c r="D588" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2">
+        <v>294500000</v>
+      </c>
+      <c r="C589" s="1">
+        <v>81</v>
+      </c>
+      <c r="D589" s="1">
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>295000000</v>
+      </c>
+      <c r="C590" s="1">
+        <v>81</v>
+      </c>
+      <c r="D590" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>295500000</v>
+      </c>
+      <c r="C591" s="1">
+        <v>81</v>
+      </c>
+      <c r="D591" s="1">
+        <v>287.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>296000000</v>
+      </c>
+      <c r="C592" s="1">
+        <v>81</v>
+      </c>
+      <c r="D592" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>296500000</v>
+      </c>
+      <c r="C593" s="1">
+        <v>81</v>
+      </c>
+      <c r="D593" s="1">
+        <v>288.5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>297000000</v>
+      </c>
+      <c r="C594" s="1">
+        <v>81</v>
+      </c>
+      <c r="D594" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>297500000</v>
+      </c>
+      <c r="C595" s="1">
+        <v>81</v>
+      </c>
+      <c r="D595" s="1">
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>298000000</v>
+      </c>
+      <c r="C596" s="1">
+        <v>81</v>
+      </c>
+      <c r="D596" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>298500000</v>
+      </c>
+      <c r="C597" s="1">
+        <v>81</v>
+      </c>
+      <c r="D597" s="1">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>299000000</v>
+      </c>
+      <c r="C598" s="1">
+        <v>81</v>
+      </c>
+      <c r="D598" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>299500000</v>
+      </c>
+      <c r="C599" s="1">
+        <v>81</v>
+      </c>
+      <c r="D599" s="1">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>300000000</v>
+      </c>
+      <c r="C600" s="1">
+        <v>81</v>
+      </c>
+      <c r="D600" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>300500000</v>
+      </c>
+      <c r="C601" s="1">
+        <v>81</v>
+      </c>
+      <c r="D601" s="1">
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2">
+        <v>301000000</v>
+      </c>
+      <c r="C602" s="1">
+        <v>81</v>
+      </c>
+      <c r="D602" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2">
+        <v>301500000</v>
+      </c>
+      <c r="C603" s="1">
+        <v>81</v>
+      </c>
+      <c r="D603" s="1">
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2">
+        <v>302000000</v>
+      </c>
+      <c r="C604" s="1">
+        <v>81</v>
+      </c>
+      <c r="D604" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2">
+        <v>302500000</v>
+      </c>
+      <c r="C605" s="1">
+        <v>81</v>
+      </c>
+      <c r="D605" s="1">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2">
+        <v>303000000</v>
+      </c>
+      <c r="C606" s="1">
+        <v>81</v>
+      </c>
+      <c r="D606" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2">
+        <v>303500000</v>
+      </c>
+      <c r="C607" s="1">
+        <v>81</v>
+      </c>
+      <c r="D607" s="1">
+        <v>295.5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2">
+        <v>304000000</v>
+      </c>
+      <c r="C608" s="1">
+        <v>81</v>
+      </c>
+      <c r="D608" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2">
+        <v>304500000</v>
+      </c>
+      <c r="C609" s="1">
+        <v>81</v>
+      </c>
+      <c r="D609" s="1">
+        <v>296.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2">
+        <v>305000000</v>
+      </c>
+      <c r="C610" s="1">
+        <v>81</v>
+      </c>
+      <c r="D610" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2">
+        <v>305500000</v>
+      </c>
+      <c r="C611" s="1">
+        <v>81</v>
+      </c>
+      <c r="D611" s="1">
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2">
+        <v>306000000</v>
+      </c>
+      <c r="C612" s="1">
+        <v>81</v>
+      </c>
+      <c r="D612" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2">
+        <v>306500000</v>
+      </c>
+      <c r="C613" s="1">
+        <v>81</v>
+      </c>
+      <c r="D613" s="1">
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2">
+        <v>307000000</v>
+      </c>
+      <c r="C614" s="1">
+        <v>81</v>
+      </c>
+      <c r="D614" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2">
+        <v>307500000</v>
+      </c>
+      <c r="C615" s="1">
+        <v>81</v>
+      </c>
+      <c r="D615" s="1">
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2">
+        <v>308000000</v>
+      </c>
+      <c r="C616" s="1">
+        <v>81</v>
+      </c>
+      <c r="D616" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2">
+        <v>308500000</v>
+      </c>
+      <c r="C617" s="1">
+        <v>81</v>
+      </c>
+      <c r="D617" s="1">
+        <v>300.5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2">
+        <v>309000000</v>
+      </c>
+      <c r="C618" s="1">
+        <v>81</v>
+      </c>
+      <c r="D618" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2">
+        <v>309500000</v>
+      </c>
+      <c r="C619" s="1">
+        <v>81</v>
+      </c>
+      <c r="D619" s="1">
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2">
+        <v>310000000</v>
+      </c>
+      <c r="C620" s="1">
+        <v>81</v>
+      </c>
+      <c r="D620" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2">
+        <v>310500000</v>
+      </c>
+      <c r="C621" s="1">
+        <v>81</v>
+      </c>
+      <c r="D621" s="1">
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2">
+        <v>311000000</v>
+      </c>
+      <c r="C622" s="1">
+        <v>81</v>
+      </c>
+      <c r="D622" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2">
+        <v>311500000</v>
+      </c>
+      <c r="C623" s="1">
+        <v>81</v>
+      </c>
+      <c r="D623" s="1">
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2">
+        <v>312000000</v>
+      </c>
+      <c r="C624" s="1">
+        <v>81</v>
+      </c>
+      <c r="D624" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2">
+        <v>312500000</v>
+      </c>
+      <c r="C625" s="1">
+        <v>81</v>
+      </c>
+      <c r="D625" s="1">
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2">
+        <v>313000000</v>
+      </c>
+      <c r="C626" s="1">
+        <v>81</v>
+      </c>
+      <c r="D626" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2">
+        <v>313500000</v>
+      </c>
+      <c r="C627" s="1">
+        <v>81</v>
+      </c>
+      <c r="D627" s="1">
+        <v>305.5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2">
+        <v>314000000</v>
+      </c>
+      <c r="C628" s="1">
+        <v>81</v>
+      </c>
+      <c r="D628" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2">
+        <v>314500000</v>
+      </c>
+      <c r="C629" s="1">
+        <v>81</v>
+      </c>
+      <c r="D629" s="1">
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2">
+        <v>315000000</v>
+      </c>
+      <c r="C630" s="1">
+        <v>81</v>
+      </c>
+      <c r="D630" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2">
+        <v>315500000</v>
+      </c>
+      <c r="C631" s="1">
+        <v>81</v>
+      </c>
+      <c r="D631" s="1">
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2">
+        <v>316000000</v>
+      </c>
+      <c r="C632" s="1">
+        <v>81</v>
+      </c>
+      <c r="D632" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2">
+        <v>316500000</v>
+      </c>
+      <c r="C633" s="1">
+        <v>81</v>
+      </c>
+      <c r="D633" s="1">
+        <v>308.5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2">
+        <v>317000000</v>
+      </c>
+      <c r="C634" s="1">
+        <v>81</v>
+      </c>
+      <c r="D634" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2">
+        <v>317500000</v>
+      </c>
+      <c r="C635" s="1">
+        <v>81</v>
+      </c>
+      <c r="D635" s="1">
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2">
+        <v>318000000</v>
+      </c>
+      <c r="C636" s="1">
+        <v>81</v>
+      </c>
+      <c r="D636" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2">
+        <v>318500000</v>
+      </c>
+      <c r="C637" s="1">
+        <v>81</v>
+      </c>
+      <c r="D637" s="1">
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2">
+        <v>319000000</v>
+      </c>
+      <c r="C638" s="1">
+        <v>81</v>
+      </c>
+      <c r="D638" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2">
+        <v>319500000</v>
+      </c>
+      <c r="C639" s="1">
+        <v>81</v>
+      </c>
+      <c r="D639" s="1">
+        <v>311.5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2">
+        <v>320000000</v>
+      </c>
+      <c r="C640" s="1">
+        <v>81</v>
+      </c>
+      <c r="D640" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2">
+        <v>320500000</v>
+      </c>
+      <c r="C641" s="1">
+        <v>81</v>
+      </c>
+      <c r="D641" s="1">
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2">
+        <v>321000000</v>
+      </c>
+      <c r="C642" s="1">
+        <v>81</v>
+      </c>
+      <c r="D642" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2">
+        <v>321500000</v>
+      </c>
+      <c r="C643" s="1">
+        <v>81</v>
+      </c>
+      <c r="D643" s="1">
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2">
+        <v>322000000</v>
+      </c>
+      <c r="C644" s="1">
+        <v>81</v>
+      </c>
+      <c r="D644" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2">
+        <v>322500000</v>
+      </c>
+      <c r="C645" s="1">
+        <v>81</v>
+      </c>
+      <c r="D645" s="1">
+        <v>314.5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2">
+        <v>323000000</v>
+      </c>
+      <c r="C646" s="1">
+        <v>81</v>
+      </c>
+      <c r="D646" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2">
+        <v>323500000</v>
+      </c>
+      <c r="C647" s="1">
+        <v>81</v>
+      </c>
+      <c r="D647" s="1">
+        <v>315.5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2">
+        <v>324000000</v>
+      </c>
+      <c r="C648" s="1">
+        <v>81</v>
+      </c>
+      <c r="D648" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2">
+        <v>324500000</v>
+      </c>
+      <c r="C649" s="1">
+        <v>81</v>
+      </c>
+      <c r="D649" s="1">
+        <v>316.5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2">
+        <v>325000000</v>
+      </c>
+      <c r="C650" s="1">
+        <v>81</v>
+      </c>
+      <c r="D650" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2">
+        <v>325500000</v>
+      </c>
+      <c r="C651" s="1">
+        <v>81</v>
+      </c>
+      <c r="D651" s="1">
+        <v>317.5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2">
+        <v>326000000</v>
+      </c>
+      <c r="C652" s="1">
+        <v>81</v>
+      </c>
+      <c r="D652" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>651</v>
+      </c>
+      <c r="B653" s="2">
+        <v>326500000</v>
+      </c>
+      <c r="C653" s="1">
+        <v>81</v>
+      </c>
+      <c r="D653" s="1">
+        <v>318.5</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>652</v>
+      </c>
+      <c r="B654" s="2">
+        <v>327000000</v>
+      </c>
+      <c r="C654" s="1">
+        <v>81</v>
+      </c>
+      <c r="D654" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>653</v>
+      </c>
+      <c r="B655" s="2">
+        <v>327500000</v>
+      </c>
+      <c r="C655" s="1">
+        <v>81</v>
+      </c>
+      <c r="D655" s="1">
+        <v>319.5</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>654</v>
+      </c>
+      <c r="B656" s="2">
+        <v>328000000</v>
+      </c>
+      <c r="C656" s="1">
+        <v>81</v>
+      </c>
+      <c r="D656" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>655</v>
+      </c>
+      <c r="B657" s="2">
+        <v>328500000</v>
+      </c>
+      <c r="C657" s="1">
+        <v>81</v>
+      </c>
+      <c r="D657" s="1">
+        <v>320.5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>656</v>
+      </c>
+      <c r="B658" s="2">
+        <v>329000000</v>
+      </c>
+      <c r="C658" s="1">
+        <v>81</v>
+      </c>
+      <c r="D658" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>657</v>
+      </c>
+      <c r="B659" s="2">
+        <v>329500000</v>
+      </c>
+      <c r="C659" s="1">
+        <v>81</v>
+      </c>
+      <c r="D659" s="1">
+        <v>321.5</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>658</v>
+      </c>
+      <c r="B660" s="2">
+        <v>330000000</v>
+      </c>
+      <c r="C660" s="1">
+        <v>81</v>
+      </c>
+      <c r="D660" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>659</v>
+      </c>
+      <c r="B661" s="2">
+        <v>330500000</v>
+      </c>
+      <c r="C661" s="1">
+        <v>81</v>
+      </c>
+      <c r="D661" s="1">
+        <v>322.5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>660</v>
+      </c>
+      <c r="B662" s="2">
+        <v>331000000</v>
+      </c>
+      <c r="C662" s="1">
+        <v>81</v>
+      </c>
+      <c r="D662" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2">
+        <v>331500000</v>
+      </c>
+      <c r="C663" s="1">
+        <v>81</v>
+      </c>
+      <c r="D663" s="1">
+        <v>323.5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>662</v>
+      </c>
+      <c r="B664" s="2">
+        <v>332000000</v>
+      </c>
+      <c r="C664" s="1">
+        <v>81</v>
+      </c>
+      <c r="D664" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>663</v>
+      </c>
+      <c r="B665" s="2">
+        <v>332500000</v>
+      </c>
+      <c r="C665" s="1">
+        <v>81</v>
+      </c>
+      <c r="D665" s="1">
+        <v>324.5</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>664</v>
+      </c>
+      <c r="B666" s="2">
+        <v>333000000</v>
+      </c>
+      <c r="C666" s="1">
+        <v>81</v>
+      </c>
+      <c r="D666" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2">
+        <v>333500000</v>
+      </c>
+      <c r="C667" s="1">
+        <v>81</v>
+      </c>
+      <c r="D667" s="1">
+        <v>325.5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>666</v>
+      </c>
+      <c r="B668" s="2">
+        <v>334000000</v>
+      </c>
+      <c r="C668" s="1">
+        <v>81</v>
+      </c>
+      <c r="D668" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>667</v>
+      </c>
+      <c r="B669" s="2">
+        <v>334500000</v>
+      </c>
+      <c r="C669" s="1">
+        <v>81</v>
+      </c>
+      <c r="D669" s="1">
+        <v>326.5</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>668</v>
+      </c>
+      <c r="B670" s="2">
+        <v>335000000</v>
+      </c>
+      <c r="C670" s="1">
+        <v>81</v>
+      </c>
+      <c r="D670" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2">
+        <v>335500000</v>
+      </c>
+      <c r="C671" s="1">
+        <v>81</v>
+      </c>
+      <c r="D671" s="1">
+        <v>327.5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2">
+        <v>336000000</v>
+      </c>
+      <c r="C672" s="1">
+        <v>81</v>
+      </c>
+      <c r="D672" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2">
+        <v>336500000</v>
+      </c>
+      <c r="C673" s="1">
+        <v>81</v>
+      </c>
+      <c r="D673" s="1">
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2">
+        <v>337000000</v>
+      </c>
+      <c r="C674" s="1">
+        <v>81</v>
+      </c>
+      <c r="D674" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>673</v>
+      </c>
+      <c r="B675" s="2">
+        <v>337500000</v>
+      </c>
+      <c r="C675" s="1">
+        <v>81</v>
+      </c>
+      <c r="D675" s="1">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>674</v>
+      </c>
+      <c r="B676" s="2">
+        <v>338000000</v>
+      </c>
+      <c r="C676" s="1">
+        <v>81</v>
+      </c>
+      <c r="D676" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2">
+        <v>338500000</v>
+      </c>
+      <c r="C677" s="1">
+        <v>81</v>
+      </c>
+      <c r="D677" s="1">
+        <v>330.5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2">
+        <v>339000000</v>
+      </c>
+      <c r="C678" s="1">
+        <v>81</v>
+      </c>
+      <c r="D678" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2">
+        <v>339500000</v>
+      </c>
+      <c r="C679" s="1">
+        <v>81</v>
+      </c>
+      <c r="D679" s="1">
+        <v>331.5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>678</v>
+      </c>
+      <c r="B680" s="2">
+        <v>340000000</v>
+      </c>
+      <c r="C680" s="1">
+        <v>81</v>
+      </c>
+      <c r="D680" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>679</v>
+      </c>
+      <c r="B681" s="2">
+        <v>340500000</v>
+      </c>
+      <c r="C681" s="1">
+        <v>81</v>
+      </c>
+      <c r="D681" s="1">
+        <v>332.5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>680</v>
+      </c>
+      <c r="B682" s="2">
+        <v>341000000</v>
+      </c>
+      <c r="C682" s="1">
+        <v>81</v>
+      </c>
+      <c r="D682" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>681</v>
+      </c>
+      <c r="B683" s="2">
+        <v>341500000</v>
+      </c>
+      <c r="C683" s="1">
+        <v>81</v>
+      </c>
+      <c r="D683" s="1">
+        <v>333.5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>682</v>
+      </c>
+      <c r="B684" s="2">
+        <v>342000000</v>
+      </c>
+      <c r="C684" s="1">
+        <v>81</v>
+      </c>
+      <c r="D684" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>683</v>
+      </c>
+      <c r="B685" s="2">
+        <v>342500000</v>
+      </c>
+      <c r="C685" s="1">
+        <v>81</v>
+      </c>
+      <c r="D685" s="1">
+        <v>334.5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>684</v>
+      </c>
+      <c r="B686" s="2">
+        <v>343000000</v>
+      </c>
+      <c r="C686" s="1">
+        <v>81</v>
+      </c>
+      <c r="D686" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>685</v>
+      </c>
+      <c r="B687" s="2">
+        <v>343500000</v>
+      </c>
+      <c r="C687" s="1">
+        <v>81</v>
+      </c>
+      <c r="D687" s="1">
+        <v>335.5</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2">
+        <v>344000000</v>
+      </c>
+      <c r="C688" s="1">
+        <v>81</v>
+      </c>
+      <c r="D688" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>687</v>
+      </c>
+      <c r="B689" s="2">
+        <v>344500000</v>
+      </c>
+      <c r="C689" s="1">
+        <v>81</v>
+      </c>
+      <c r="D689" s="1">
+        <v>336.5</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>688</v>
+      </c>
+      <c r="B690" s="2">
+        <v>345000000</v>
+      </c>
+      <c r="C690" s="1">
+        <v>81</v>
+      </c>
+      <c r="D690" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>689</v>
+      </c>
+      <c r="B691" s="2">
+        <v>345500000</v>
+      </c>
+      <c r="C691" s="1">
+        <v>81</v>
+      </c>
+      <c r="D691" s="1">
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>690</v>
+      </c>
+      <c r="B692" s="2">
+        <v>346000000</v>
+      </c>
+      <c r="C692" s="1">
+        <v>81</v>
+      </c>
+      <c r="D692" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>691</v>
+      </c>
+      <c r="B693" s="2">
+        <v>346500000</v>
+      </c>
+      <c r="C693" s="1">
+        <v>81</v>
+      </c>
+      <c r="D693" s="1">
+        <v>338.5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>692</v>
+      </c>
+      <c r="B694" s="2">
+        <v>347000000</v>
+      </c>
+      <c r="C694" s="1">
+        <v>81</v>
+      </c>
+      <c r="D694" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>693</v>
+      </c>
+      <c r="B695" s="2">
+        <v>347500000</v>
+      </c>
+      <c r="C695" s="1">
+        <v>81</v>
+      </c>
+      <c r="D695" s="1">
+        <v>339.5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>694</v>
+      </c>
+      <c r="B696" s="2">
+        <v>348000000</v>
+      </c>
+      <c r="C696" s="1">
+        <v>81</v>
+      </c>
+      <c r="D696" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>695</v>
+      </c>
+      <c r="B697" s="2">
+        <v>348500000</v>
+      </c>
+      <c r="C697" s="1">
+        <v>81</v>
+      </c>
+      <c r="D697" s="1">
+        <v>340.5</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>696</v>
+      </c>
+      <c r="B698" s="2">
+        <v>349000000</v>
+      </c>
+      <c r="C698" s="1">
+        <v>81</v>
+      </c>
+      <c r="D698" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>697</v>
+      </c>
+      <c r="B699" s="2">
+        <v>349500000</v>
+      </c>
+      <c r="C699" s="1">
+        <v>81</v>
+      </c>
+      <c r="D699" s="1">
+        <v>341.5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>698</v>
+      </c>
+      <c r="B700" s="2">
+        <v>350000000</v>
+      </c>
+      <c r="C700" s="1">
+        <v>81</v>
+      </c>
+      <c r="D700" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>699</v>
+      </c>
+      <c r="B701" s="2">
+        <v>350500000</v>
+      </c>
+      <c r="C701" s="1">
+        <v>81</v>
+      </c>
+      <c r="D701" s="1">
+        <v>342.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/RelicEnhance.xlsx
+++ b/Assets/06.Table/RelicEnhance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7EC0A1-2D05-4BE7-8A59-B259BE25D759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA65D3E-B51B-41EB-9D7B-38FC5EF6512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="28830" windowHeight="7770" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicEnhance" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D701"/>
+  <dimension ref="A1:D801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B697" sqref="B697"/>
+      <pane ySplit="1" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C584" sqref="C584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10264,6 +10264,1406 @@
         <v>342.5</v>
       </c>
     </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2">
+        <v>351000000</v>
+      </c>
+      <c r="C702" s="1">
+        <v>81</v>
+      </c>
+      <c r="D702" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2">
+        <v>351500000</v>
+      </c>
+      <c r="C703" s="1">
+        <v>81</v>
+      </c>
+      <c r="D703" s="1">
+        <v>343.5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2">
+        <v>352000000</v>
+      </c>
+      <c r="C704" s="1">
+        <v>81</v>
+      </c>
+      <c r="D704" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2">
+        <v>352500000</v>
+      </c>
+      <c r="C705" s="1">
+        <v>81</v>
+      </c>
+      <c r="D705" s="1">
+        <v>344.5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2">
+        <v>353000000</v>
+      </c>
+      <c r="C706" s="1">
+        <v>81</v>
+      </c>
+      <c r="D706" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2">
+        <v>353500000</v>
+      </c>
+      <c r="C707" s="1">
+        <v>81</v>
+      </c>
+      <c r="D707" s="1">
+        <v>345.5</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2">
+        <v>354000000</v>
+      </c>
+      <c r="C708" s="1">
+        <v>81</v>
+      </c>
+      <c r="D708" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2">
+        <v>354500000</v>
+      </c>
+      <c r="C709" s="1">
+        <v>81</v>
+      </c>
+      <c r="D709" s="1">
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2">
+        <v>355000000</v>
+      </c>
+      <c r="C710" s="1">
+        <v>81</v>
+      </c>
+      <c r="D710" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2">
+        <v>355500000</v>
+      </c>
+      <c r="C711" s="1">
+        <v>81</v>
+      </c>
+      <c r="D711" s="1">
+        <v>347.5</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2">
+        <v>356000000</v>
+      </c>
+      <c r="C712" s="1">
+        <v>81</v>
+      </c>
+      <c r="D712" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2">
+        <v>356500000</v>
+      </c>
+      <c r="C713" s="1">
+        <v>81</v>
+      </c>
+      <c r="D713" s="1">
+        <v>348.5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2">
+        <v>357000000</v>
+      </c>
+      <c r="C714" s="1">
+        <v>81</v>
+      </c>
+      <c r="D714" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2">
+        <v>357500000</v>
+      </c>
+      <c r="C715" s="1">
+        <v>81</v>
+      </c>
+      <c r="D715" s="1">
+        <v>349.5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2">
+        <v>358000000</v>
+      </c>
+      <c r="C716" s="1">
+        <v>81</v>
+      </c>
+      <c r="D716" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2">
+        <v>358500000</v>
+      </c>
+      <c r="C717" s="1">
+        <v>81</v>
+      </c>
+      <c r="D717" s="1">
+        <v>350.5</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2">
+        <v>359000000</v>
+      </c>
+      <c r="C718" s="1">
+        <v>81</v>
+      </c>
+      <c r="D718" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2">
+        <v>359500000</v>
+      </c>
+      <c r="C719" s="1">
+        <v>81</v>
+      </c>
+      <c r="D719" s="1">
+        <v>351.5</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2">
+        <v>360000000</v>
+      </c>
+      <c r="C720" s="1">
+        <v>81</v>
+      </c>
+      <c r="D720" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2">
+        <v>360500000</v>
+      </c>
+      <c r="C721" s="1">
+        <v>81</v>
+      </c>
+      <c r="D721" s="1">
+        <v>352.5</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2">
+        <v>361000000</v>
+      </c>
+      <c r="C722" s="1">
+        <v>81</v>
+      </c>
+      <c r="D722" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2">
+        <v>361500000</v>
+      </c>
+      <c r="C723" s="1">
+        <v>81</v>
+      </c>
+      <c r="D723" s="1">
+        <v>353.5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2">
+        <v>362000000</v>
+      </c>
+      <c r="C724" s="1">
+        <v>81</v>
+      </c>
+      <c r="D724" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2">
+        <v>362500000</v>
+      </c>
+      <c r="C725" s="1">
+        <v>81</v>
+      </c>
+      <c r="D725" s="1">
+        <v>354.5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2">
+        <v>363000000</v>
+      </c>
+      <c r="C726" s="1">
+        <v>81</v>
+      </c>
+      <c r="D726" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2">
+        <v>363500000</v>
+      </c>
+      <c r="C727" s="1">
+        <v>81</v>
+      </c>
+      <c r="D727" s="1">
+        <v>355.5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2">
+        <v>364000000</v>
+      </c>
+      <c r="C728" s="1">
+        <v>81</v>
+      </c>
+      <c r="D728" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2">
+        <v>364500000</v>
+      </c>
+      <c r="C729" s="1">
+        <v>81</v>
+      </c>
+      <c r="D729" s="1">
+        <v>356.5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2">
+        <v>365000000</v>
+      </c>
+      <c r="C730" s="1">
+        <v>81</v>
+      </c>
+      <c r="D730" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2">
+        <v>365500000</v>
+      </c>
+      <c r="C731" s="1">
+        <v>81</v>
+      </c>
+      <c r="D731" s="1">
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2">
+        <v>366000000</v>
+      </c>
+      <c r="C732" s="1">
+        <v>81</v>
+      </c>
+      <c r="D732" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2">
+        <v>366500000</v>
+      </c>
+      <c r="C733" s="1">
+        <v>81</v>
+      </c>
+      <c r="D733" s="1">
+        <v>358.5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2">
+        <v>367000000</v>
+      </c>
+      <c r="C734" s="1">
+        <v>81</v>
+      </c>
+      <c r="D734" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2">
+        <v>367500000</v>
+      </c>
+      <c r="C735" s="1">
+        <v>81</v>
+      </c>
+      <c r="D735" s="1">
+        <v>359.5</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2">
+        <v>368000000</v>
+      </c>
+      <c r="C736" s="1">
+        <v>81</v>
+      </c>
+      <c r="D736" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2">
+        <v>368500000</v>
+      </c>
+      <c r="C737" s="1">
+        <v>81</v>
+      </c>
+      <c r="D737" s="1">
+        <v>360.5</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2">
+        <v>369000000</v>
+      </c>
+      <c r="C738" s="1">
+        <v>81</v>
+      </c>
+      <c r="D738" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2">
+        <v>369500000</v>
+      </c>
+      <c r="C739" s="1">
+        <v>81</v>
+      </c>
+      <c r="D739" s="1">
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2">
+        <v>370000000</v>
+      </c>
+      <c r="C740" s="1">
+        <v>81</v>
+      </c>
+      <c r="D740" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2">
+        <v>370500000</v>
+      </c>
+      <c r="C741" s="1">
+        <v>81</v>
+      </c>
+      <c r="D741" s="1">
+        <v>362.5</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2">
+        <v>371000000</v>
+      </c>
+      <c r="C742" s="1">
+        <v>81</v>
+      </c>
+      <c r="D742" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2">
+        <v>371500000</v>
+      </c>
+      <c r="C743" s="1">
+        <v>81</v>
+      </c>
+      <c r="D743" s="1">
+        <v>363.5</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2">
+        <v>372000000</v>
+      </c>
+      <c r="C744" s="1">
+        <v>81</v>
+      </c>
+      <c r="D744" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2">
+        <v>372500000</v>
+      </c>
+      <c r="C745" s="1">
+        <v>81</v>
+      </c>
+      <c r="D745" s="1">
+        <v>364.5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2">
+        <v>373000000</v>
+      </c>
+      <c r="C746" s="1">
+        <v>81</v>
+      </c>
+      <c r="D746" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2">
+        <v>373500000</v>
+      </c>
+      <c r="C747" s="1">
+        <v>81</v>
+      </c>
+      <c r="D747" s="1">
+        <v>365.5</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2">
+        <v>374000000</v>
+      </c>
+      <c r="C748" s="1">
+        <v>81</v>
+      </c>
+      <c r="D748" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2">
+        <v>374500000</v>
+      </c>
+      <c r="C749" s="1">
+        <v>81</v>
+      </c>
+      <c r="D749" s="1">
+        <v>366.5</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2">
+        <v>375000000</v>
+      </c>
+      <c r="C750" s="1">
+        <v>81</v>
+      </c>
+      <c r="D750" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2">
+        <v>375500000</v>
+      </c>
+      <c r="C751" s="1">
+        <v>81</v>
+      </c>
+      <c r="D751" s="1">
+        <v>367.5</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2">
+        <v>376000000</v>
+      </c>
+      <c r="C752" s="1">
+        <v>81</v>
+      </c>
+      <c r="D752" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2">
+        <v>376500000</v>
+      </c>
+      <c r="C753" s="1">
+        <v>81</v>
+      </c>
+      <c r="D753" s="1">
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2">
+        <v>377000000</v>
+      </c>
+      <c r="C754" s="1">
+        <v>81</v>
+      </c>
+      <c r="D754" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2">
+        <v>377500000</v>
+      </c>
+      <c r="C755" s="1">
+        <v>81</v>
+      </c>
+      <c r="D755" s="1">
+        <v>369.5</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2">
+        <v>378000000</v>
+      </c>
+      <c r="C756" s="1">
+        <v>81</v>
+      </c>
+      <c r="D756" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2">
+        <v>378500000</v>
+      </c>
+      <c r="C757" s="1">
+        <v>81</v>
+      </c>
+      <c r="D757" s="1">
+        <v>370.5</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2">
+        <v>379000000</v>
+      </c>
+      <c r="C758" s="1">
+        <v>81</v>
+      </c>
+      <c r="D758" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2">
+        <v>379500000</v>
+      </c>
+      <c r="C759" s="1">
+        <v>81</v>
+      </c>
+      <c r="D759" s="1">
+        <v>371.5</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2">
+        <v>380000000</v>
+      </c>
+      <c r="C760" s="1">
+        <v>81</v>
+      </c>
+      <c r="D760" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2">
+        <v>380500000</v>
+      </c>
+      <c r="C761" s="1">
+        <v>81</v>
+      </c>
+      <c r="D761" s="1">
+        <v>372.5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2">
+        <v>381000000</v>
+      </c>
+      <c r="C762" s="1">
+        <v>81</v>
+      </c>
+      <c r="D762" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2">
+        <v>381500000</v>
+      </c>
+      <c r="C763" s="1">
+        <v>81</v>
+      </c>
+      <c r="D763" s="1">
+        <v>373.5</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2">
+        <v>382000000</v>
+      </c>
+      <c r="C764" s="1">
+        <v>81</v>
+      </c>
+      <c r="D764" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2">
+        <v>382500000</v>
+      </c>
+      <c r="C765" s="1">
+        <v>81</v>
+      </c>
+      <c r="D765" s="1">
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2">
+        <v>383000000</v>
+      </c>
+      <c r="C766" s="1">
+        <v>81</v>
+      </c>
+      <c r="D766" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2">
+        <v>383500000</v>
+      </c>
+      <c r="C767" s="1">
+        <v>81</v>
+      </c>
+      <c r="D767" s="1">
+        <v>375.5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2">
+        <v>384000000</v>
+      </c>
+      <c r="C768" s="1">
+        <v>81</v>
+      </c>
+      <c r="D768" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2">
+        <v>384500000</v>
+      </c>
+      <c r="C769" s="1">
+        <v>81</v>
+      </c>
+      <c r="D769" s="1">
+        <v>376.5</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2">
+        <v>385000000</v>
+      </c>
+      <c r="C770" s="1">
+        <v>81</v>
+      </c>
+      <c r="D770" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2">
+        <v>385500000</v>
+      </c>
+      <c r="C771" s="1">
+        <v>81</v>
+      </c>
+      <c r="D771" s="1">
+        <v>377.5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2">
+        <v>386000000</v>
+      </c>
+      <c r="C772" s="1">
+        <v>81</v>
+      </c>
+      <c r="D772" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2">
+        <v>386500000</v>
+      </c>
+      <c r="C773" s="1">
+        <v>81</v>
+      </c>
+      <c r="D773" s="1">
+        <v>378.5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2">
+        <v>387000000</v>
+      </c>
+      <c r="C774" s="1">
+        <v>81</v>
+      </c>
+      <c r="D774" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2">
+        <v>387500000</v>
+      </c>
+      <c r="C775" s="1">
+        <v>81</v>
+      </c>
+      <c r="D775" s="1">
+        <v>379.5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2">
+        <v>388000000</v>
+      </c>
+      <c r="C776" s="1">
+        <v>81</v>
+      </c>
+      <c r="D776" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2">
+        <v>388500000</v>
+      </c>
+      <c r="C777" s="1">
+        <v>81</v>
+      </c>
+      <c r="D777" s="1">
+        <v>380.5</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2">
+        <v>389000000</v>
+      </c>
+      <c r="C778" s="1">
+        <v>81</v>
+      </c>
+      <c r="D778" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2">
+        <v>389500000</v>
+      </c>
+      <c r="C779" s="1">
+        <v>81</v>
+      </c>
+      <c r="D779" s="1">
+        <v>381.5</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2">
+        <v>390000000</v>
+      </c>
+      <c r="C780" s="1">
+        <v>81</v>
+      </c>
+      <c r="D780" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2">
+        <v>390500000</v>
+      </c>
+      <c r="C781" s="1">
+        <v>81</v>
+      </c>
+      <c r="D781" s="1">
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2">
+        <v>391000000</v>
+      </c>
+      <c r="C782" s="1">
+        <v>81</v>
+      </c>
+      <c r="D782" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2">
+        <v>391500000</v>
+      </c>
+      <c r="C783" s="1">
+        <v>81</v>
+      </c>
+      <c r="D783" s="1">
+        <v>383.5</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2">
+        <v>392000000</v>
+      </c>
+      <c r="C784" s="1">
+        <v>81</v>
+      </c>
+      <c r="D784" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2">
+        <v>392500000</v>
+      </c>
+      <c r="C785" s="1">
+        <v>81</v>
+      </c>
+      <c r="D785" s="1">
+        <v>384.5</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2">
+        <v>393000000</v>
+      </c>
+      <c r="C786" s="1">
+        <v>81</v>
+      </c>
+      <c r="D786" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2">
+        <v>393500000</v>
+      </c>
+      <c r="C787" s="1">
+        <v>81</v>
+      </c>
+      <c r="D787" s="1">
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2">
+        <v>394000000</v>
+      </c>
+      <c r="C788" s="1">
+        <v>81</v>
+      </c>
+      <c r="D788" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2">
+        <v>394500000</v>
+      </c>
+      <c r="C789" s="1">
+        <v>81</v>
+      </c>
+      <c r="D789" s="1">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2">
+        <v>395000000</v>
+      </c>
+      <c r="C790" s="1">
+        <v>81</v>
+      </c>
+      <c r="D790" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2">
+        <v>395500000</v>
+      </c>
+      <c r="C791" s="1">
+        <v>81</v>
+      </c>
+      <c r="D791" s="1">
+        <v>387.5</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2">
+        <v>396000000</v>
+      </c>
+      <c r="C792" s="1">
+        <v>81</v>
+      </c>
+      <c r="D792" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2">
+        <v>396500000</v>
+      </c>
+      <c r="C793" s="1">
+        <v>81</v>
+      </c>
+      <c r="D793" s="1">
+        <v>388.5</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2">
+        <v>397000000</v>
+      </c>
+      <c r="C794" s="1">
+        <v>81</v>
+      </c>
+      <c r="D794" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2">
+        <v>397500000</v>
+      </c>
+      <c r="C795" s="1">
+        <v>81</v>
+      </c>
+      <c r="D795" s="1">
+        <v>389.5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2">
+        <v>398000000</v>
+      </c>
+      <c r="C796" s="1">
+        <v>81</v>
+      </c>
+      <c r="D796" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2">
+        <v>398500000</v>
+      </c>
+      <c r="C797" s="1">
+        <v>81</v>
+      </c>
+      <c r="D797" s="1">
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2">
+        <v>399000000</v>
+      </c>
+      <c r="C798" s="1">
+        <v>81</v>
+      </c>
+      <c r="D798" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2">
+        <v>399500000</v>
+      </c>
+      <c r="C799" s="1">
+        <v>81</v>
+      </c>
+      <c r="D799" s="1">
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2">
+        <v>400000000</v>
+      </c>
+      <c r="C800" s="1">
+        <v>81</v>
+      </c>
+      <c r="D800" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2">
+        <v>400500000</v>
+      </c>
+      <c r="C801" s="1">
+        <v>81</v>
+      </c>
+      <c r="D801" s="1">
+        <v>392.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
